--- a/va_facility_data_2025-02-20/Poughkeepsie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Poughkeepsie%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Poughkeepsie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Poughkeepsie%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R325e2c9866ec4606888838319908006a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R50a18d84cc904fab80402eb37dcfac43"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4b5d1335e7a04b2fa6186005d0a65dff"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb18ae220eaeb47e18d7ec351e18cfd21"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra0e63cceedf74d3f9e1be5b3fa5609ee"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra7b98c1c71664e69975ae3de979a5333"/>
   </x:sheets>
 </x:workbook>
 </file>
